--- a/data/trans_orig/P1404-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>145918</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124670</v>
+        <v>124577</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>167530</v>
+        <v>167231</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.141431624831888</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1208371023818921</v>
+        <v>0.120746464681982</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1623788167141967</v>
+        <v>0.1620895229870524</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>233</v>
@@ -765,19 +765,19 @@
         <v>239785</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>213614</v>
+        <v>213779</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>269492</v>
+        <v>267161</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1823302806144036</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1624300062329938</v>
+        <v>0.1625555798101435</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2049195596532746</v>
+        <v>0.2031469372824757</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>387</v>
@@ -786,19 +786,19 @@
         <v>385703</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>349190</v>
+        <v>350922</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>423963</v>
+        <v>424473</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1643502910503842</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1487920640860264</v>
+        <v>0.1495297264918519</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1806528933243534</v>
+        <v>0.1808705347696708</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>885805</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>864193</v>
+        <v>864492</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>907053</v>
+        <v>907146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.858568375168112</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8376211832858033</v>
+        <v>0.8379104770129476</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8791628976181078</v>
+        <v>0.8792535353180182</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1058</v>
@@ -836,19 +836,19 @@
         <v>1075328</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1045621</v>
+        <v>1047952</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1101499</v>
+        <v>1101334</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8176697193855964</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7950804403467241</v>
+        <v>0.7968530627175243</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.837569993767006</v>
+        <v>0.8374444201898567</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1942</v>
@@ -857,19 +857,19 @@
         <v>1961132</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1922872</v>
+        <v>1922362</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1997645</v>
+        <v>1995913</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8356497089496158</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8193471066756466</v>
+        <v>0.8191294652303294</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8512079359139735</v>
+        <v>0.8504702735081481</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>88069</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70159</v>
+        <v>71644</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107044</v>
+        <v>107839</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05200696731658624</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04143048522563552</v>
+        <v>0.04230751582040791</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06321172436116747</v>
+        <v>0.06368170860121572</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -982,19 +982,19 @@
         <v>87932</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70552</v>
+        <v>71161</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108982</v>
+        <v>106455</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05538408645056546</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0444373759454554</v>
+        <v>0.0448210353614505</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0686425100377009</v>
+        <v>0.06705094974483634</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>170</v>
@@ -1003,19 +1003,19 @@
         <v>176001</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>150024</v>
+        <v>148282</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>201403</v>
+        <v>200169</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05364110969554409</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04572394336667038</v>
+        <v>0.04519311317470685</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06138289177985103</v>
+        <v>0.06100708686372229</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1605344</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1586369</v>
+        <v>1585574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1623254</v>
+        <v>1621769</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9479930326834137</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9367882756388325</v>
+        <v>0.9363182913987842</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9585695147743646</v>
+        <v>0.9576924841795921</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1471</v>
@@ -1053,19 +1053,19 @@
         <v>1499741</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1478691</v>
+        <v>1481218</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1517121</v>
+        <v>1516512</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9446159135494345</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9313574899622991</v>
+        <v>0.9329490502551637</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9555626240545446</v>
+        <v>0.9551789646385495</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3033</v>
@@ -1074,19 +1074,19 @@
         <v>3105085</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3079683</v>
+        <v>3080917</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3131062</v>
+        <v>3132804</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9463588903044559</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9386171082201482</v>
+        <v>0.9389929131362778</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9542760566333288</v>
+        <v>0.9548068868252931</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>25724</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16842</v>
+        <v>16886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36686</v>
+        <v>37747</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04665179231068833</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03054424520772052</v>
+        <v>0.03062296712008076</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06653121838226532</v>
+        <v>0.06845476961038033</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1199,19 +1199,19 @@
         <v>20465</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11935</v>
+        <v>12551</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30675</v>
+        <v>30501</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04295578329702755</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02505171087560388</v>
+        <v>0.02634418000736816</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06438768798359473</v>
+        <v>0.0640217991557375</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -1220,19 +1220,19 @@
         <v>46189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34196</v>
+        <v>34902</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59679</v>
+        <v>61487</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04493863004882486</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03327078289066472</v>
+        <v>0.03395703348404555</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05806351055376653</v>
+        <v>0.0598225496092334</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>525684</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>514722</v>
+        <v>513661</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>534566</v>
+        <v>534522</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9533482076893117</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9334687816177343</v>
+        <v>0.9315452303896197</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9694557547922794</v>
+        <v>0.9693770328799194</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>433</v>
@@ -1270,19 +1270,19 @@
         <v>455947</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>445737</v>
+        <v>445911</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>464477</v>
+        <v>463861</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9570442167029725</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9356123120164054</v>
+        <v>0.9359782008442625</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9749482891243961</v>
+        <v>0.9736558199926318</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>934</v>
@@ -1291,19 +1291,19 @@
         <v>981631</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>968141</v>
+        <v>966333</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>993624</v>
+        <v>992918</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9550613699511752</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9419364894462335</v>
+        <v>0.9401774503907666</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9667292171093353</v>
+        <v>0.9660429665159544</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>259712</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>231329</v>
+        <v>230412</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>290698</v>
+        <v>290374</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07926391656377424</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07060155006710656</v>
+        <v>0.0703215665348931</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08872081548127093</v>
+        <v>0.08862195580850631</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>335</v>
@@ -1416,19 +1416,19 @@
         <v>348181</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>318811</v>
+        <v>312999</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>387057</v>
+        <v>388214</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1030366913449996</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09434520588601045</v>
+        <v>0.09262512494237973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1145409934477128</v>
+        <v>0.1148835484861753</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>602</v>
@@ -1437,19 +1437,19 @@
         <v>607893</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>561667</v>
+        <v>558746</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>657803</v>
+        <v>653089</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09133363217087917</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08438834873613438</v>
+        <v>0.0839494883795797</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09883244104123255</v>
+        <v>0.09812422392078991</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3016831</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2985845</v>
+        <v>2986169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3045214</v>
+        <v>3046131</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9207360834362258</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9112791845187294</v>
+        <v>0.9113780441914937</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9293984499328934</v>
+        <v>0.9296784334651069</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2962</v>
@@ -1487,19 +1487,19 @@
         <v>3031016</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2992140</v>
+        <v>2990983</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3060386</v>
+        <v>3066198</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8969633086550004</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8854590065522873</v>
+        <v>0.8851164515138248</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9056547941139895</v>
+        <v>0.9073748750576203</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5909</v>
@@ -1508,19 +1508,19 @@
         <v>6047848</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5997938</v>
+        <v>6002652</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6094074</v>
+        <v>6096995</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9086663678291208</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9011675589587674</v>
+        <v>0.9018757760792101</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9156116512638657</v>
+        <v>0.9160505116204203</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>217534</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>190754</v>
+        <v>192007</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>244806</v>
+        <v>250157</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2231933183792312</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1957167798122323</v>
+        <v>0.197002615416369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2511745372081353</v>
+        <v>0.2566651666062014</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>334</v>
@@ -1872,19 +1872,19 @@
         <v>354507</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>324666</v>
+        <v>319461</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>390565</v>
+        <v>381542</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2649930137978575</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2426867429284816</v>
+        <v>0.2387962926563149</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2919460920343835</v>
+        <v>0.285201369675138</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>533</v>
@@ -1893,19 +1893,19 @@
         <v>572041</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>530414</v>
+        <v>530592</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>614908</v>
+        <v>617471</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2473753507286983</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2293743719438634</v>
+        <v>0.2294511121406864</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.26591287454511</v>
+        <v>0.2670215970159073</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>757109</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>729837</v>
+        <v>724486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>783889</v>
+        <v>782636</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7768066816207688</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7488254627918648</v>
+        <v>0.7433348333937986</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8042832201877677</v>
+        <v>0.802997384583631</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>913</v>
@@ -1943,19 +1943,19 @@
         <v>983290</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>947232</v>
+        <v>956255</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1013131</v>
+        <v>1018336</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7350069862021424</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7080539079656164</v>
+        <v>0.714798630324862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7573132570715183</v>
+        <v>0.7612037073436851</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1622</v>
@@ -1964,19 +1964,19 @@
         <v>1740399</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1697532</v>
+        <v>1694969</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1782026</v>
+        <v>1781848</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7526246492713017</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.73408712545489</v>
+        <v>0.7329784029840926</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7706256280561365</v>
+        <v>0.7705488878593134</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>135312</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113781</v>
+        <v>110999</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>163132</v>
+        <v>161252</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06894705003397854</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0579761648392551</v>
+        <v>0.05655878760412548</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08312271165087795</v>
+        <v>0.08216468229807725</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>103</v>
@@ -2089,19 +2089,19 @@
         <v>118814</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>96593</v>
+        <v>98414</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>142261</v>
+        <v>144757</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06771613982994391</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05505151407614634</v>
+        <v>0.05608922334617089</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08107951509824762</v>
+        <v>0.08250171313370265</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>225</v>
@@ -2110,19 +2110,19 @@
         <v>254126</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>221870</v>
+        <v>223568</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>289304</v>
+        <v>289488</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06836602681383167</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05968835795767836</v>
+        <v>0.06014517428820713</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0778297483235539</v>
+        <v>0.07787912108705446</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1827237</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1799417</v>
+        <v>1801297</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1848768</v>
+        <v>1851550</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9310529499660215</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9168772883491221</v>
+        <v>0.9178353177019227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9420238351607448</v>
+        <v>0.9434412123958745</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1530</v>
@@ -2160,19 +2160,19 @@
         <v>1635778</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1612331</v>
+        <v>1609835</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1657999</v>
+        <v>1656178</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.932283860170056</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9189204849017524</v>
+        <v>0.9174982868662973</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9449484859238534</v>
+        <v>0.9439107766538291</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3263</v>
@@ -2181,19 +2181,19 @@
         <v>3463015</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3427837</v>
+        <v>3427653</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3495271</v>
+        <v>3493573</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9316339731861684</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9221702516764462</v>
+        <v>0.9221208789129455</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9403116420423216</v>
+        <v>0.9398548257117929</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>35828</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24410</v>
+        <v>24380</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50350</v>
+        <v>49742</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07445822796814229</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0507286498492189</v>
+        <v>0.05066635485785857</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1046391858881347</v>
+        <v>0.1033745705140873</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -2306,19 +2306,19 @@
         <v>17519</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9919</v>
+        <v>10640</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30212</v>
+        <v>29590</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03819840754503065</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02162824812959753</v>
+        <v>0.02320026872708888</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06587464579669086</v>
+        <v>0.06451724073002323</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -2327,19 +2327,19 @@
         <v>53347</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38754</v>
+        <v>40089</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72810</v>
+        <v>71712</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05676333624204477</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04123580000846093</v>
+        <v>0.04265623851820354</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07747277445730952</v>
+        <v>0.07630408136922669</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>445353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>430831</v>
+        <v>431439</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>456771</v>
+        <v>456801</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9255417720318577</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8953608141118653</v>
+        <v>0.896625429485913</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9492713501507812</v>
+        <v>0.9493336451421415</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>397</v>
@@ -2377,19 +2377,19 @@
         <v>441112</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>428419</v>
+        <v>429041</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>448712</v>
+        <v>447991</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9618015924549693</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9341253542033091</v>
+        <v>0.9354827592699765</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9783717518704025</v>
+        <v>0.976799731272911</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>806</v>
@@ -2398,19 +2398,19 @@
         <v>886466</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>867003</v>
+        <v>868101</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>901059</v>
+        <v>899724</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9432366637579552</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9225272255426905</v>
+        <v>0.9236959186307734</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9587641999915391</v>
+        <v>0.9573437614817965</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>388674</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>349517</v>
+        <v>350902</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>428278</v>
+        <v>426359</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1137013545472253</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1022464542410905</v>
+        <v>0.1026517781949503</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1252872128696292</v>
+        <v>0.1247255732353357</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>452</v>
@@ -2523,19 +2523,19 @@
         <v>490840</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>450775</v>
+        <v>455112</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>534804</v>
+        <v>535731</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.138225062960491</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1269423185026892</v>
+        <v>0.1281638588799361</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1506057550079769</v>
+        <v>0.1508667547439244</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>802</v>
@@ -2544,19 +2544,19 @@
         <v>879514</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>817707</v>
+        <v>826369</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>939946</v>
+        <v>936936</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1261965847374732</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1173283442280431</v>
+        <v>0.1185711704565548</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1348677129213528</v>
+        <v>0.1344358406131706</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3029699</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2990095</v>
+        <v>2992014</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3068856</v>
+        <v>3067471</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8862986454527747</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8747127871303709</v>
+        <v>0.8752744267646643</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8977535457589098</v>
+        <v>0.8973482218050498</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2840</v>
@@ -2594,19 +2594,19 @@
         <v>3060180</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3016216</v>
+        <v>3015289</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3100245</v>
+        <v>3095908</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.861774937039509</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8493942449920231</v>
+        <v>0.8491332452560756</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8730576814973108</v>
+        <v>0.8718361411200639</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5691</v>
@@ -2615,19 +2615,19 @@
         <v>6089879</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6029447</v>
+        <v>6032457</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6151686</v>
+        <v>6143024</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8738034152625268</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8651322870786472</v>
+        <v>0.8655641593868295</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8826716557719569</v>
+        <v>0.8814288295434453</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>179049</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>155899</v>
+        <v>156155</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>204262</v>
+        <v>204282</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2373556649968107</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.206667978009236</v>
+        <v>0.207006611932662</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.270779949023164</v>
+        <v>0.2708058129335296</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>238</v>
@@ -2979,19 +2979,19 @@
         <v>272147</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>243057</v>
+        <v>242747</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>302094</v>
+        <v>301099</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2736085213012218</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2443623640917851</v>
+        <v>0.2440498658820015</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3037154186482079</v>
+        <v>0.3027157058543001</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>426</v>
@@ -3000,19 +3000,19 @@
         <v>451196</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>415604</v>
+        <v>414409</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>488430</v>
+        <v>488537</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2579726627184157</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2376225819646962</v>
+        <v>0.2369396394932358</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.279261288272448</v>
+        <v>0.2793224316406456</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>575298</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>550085</v>
+        <v>550065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>598448</v>
+        <v>598192</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7626443350031893</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7292200509768358</v>
+        <v>0.7291941870664703</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7933320219907639</v>
+        <v>0.792993388067338</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>654</v>
@@ -3050,19 +3050,19 @@
         <v>722513</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>692566</v>
+        <v>693561</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>751603</v>
+        <v>751913</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7263914786987782</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6962845813517921</v>
+        <v>0.6972842941456999</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7556376359082149</v>
+        <v>0.7559501341179986</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1228</v>
@@ -3071,19 +3071,19 @@
         <v>1297811</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1260577</v>
+        <v>1260470</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1333403</v>
+        <v>1334598</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7420273372815843</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.720738711727552</v>
+        <v>0.7206775683593544</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.762377418035304</v>
+        <v>0.7630603605067642</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>161424</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>137718</v>
+        <v>138103</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>188077</v>
+        <v>189106</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07774289795293332</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06632579806899618</v>
+        <v>0.06651136458577588</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0905789065636448</v>
+        <v>0.09107481388379692</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>145</v>
@@ -3196,19 +3196,19 @@
         <v>162863</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>141097</v>
+        <v>139649</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>191452</v>
+        <v>189915</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0819107866557594</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07096340082287969</v>
+        <v>0.07023530741614199</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09628953284873418</v>
+        <v>0.09551638311457664</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>296</v>
@@ -3217,19 +3217,19 @@
         <v>324287</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>290284</v>
+        <v>291931</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>360352</v>
+        <v>362492</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07978168160188891</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07141603839725898</v>
+        <v>0.07182121592959455</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08865446047439539</v>
+        <v>0.08918095432211315</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1914961</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1888308</v>
+        <v>1887279</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1938667</v>
+        <v>1938282</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9222571020470667</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9094210934363551</v>
+        <v>0.908925186116203</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9336742019310038</v>
+        <v>0.9334886354142241</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1763</v>
@@ -3267,19 +3267,19 @@
         <v>1825437</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1796848</v>
+        <v>1798385</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1847203</v>
+        <v>1848651</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9180892133442407</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9037104671512658</v>
+        <v>0.9044836168854233</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9290365991771202</v>
+        <v>0.9297646925838579</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3564</v>
@@ -3288,19 +3288,19 @@
         <v>3740398</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3704333</v>
+        <v>3702193</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3774401</v>
+        <v>3772754</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9202183183981111</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9113455395256047</v>
+        <v>0.9108190456778864</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.928583961602741</v>
+        <v>0.9281787840704054</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>46190</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33645</v>
+        <v>32778</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61575</v>
+        <v>61062</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08446040333864639</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06152054859216031</v>
+        <v>0.05993602549818351</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1125918883038064</v>
+        <v>0.1116535538249154</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -3413,19 +3413,19 @@
         <v>34327</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23582</v>
+        <v>22840</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48066</v>
+        <v>48496</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06251025389023201</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04294300945048574</v>
+        <v>0.04159154341529125</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08753025374453344</v>
+        <v>0.08831240396746003</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>68</v>
@@ -3434,19 +3434,19 @@
         <v>80517</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64160</v>
+        <v>64372</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100543</v>
+        <v>101531</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07346275672537915</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05853890919696943</v>
+        <v>0.05873185389349141</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09173404481905294</v>
+        <v>0.09263573969854937</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>500696</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>485311</v>
+        <v>485824</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>513241</v>
+        <v>514108</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9155395966613536</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8874081116961934</v>
+        <v>0.8883464461750847</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9384794514078396</v>
+        <v>0.9400639745018166</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>498</v>
@@ -3484,19 +3484,19 @@
         <v>514813</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>501074</v>
+        <v>500644</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>525558</v>
+        <v>526300</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.937489746109768</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9124697462554666</v>
+        <v>0.9116875960325401</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9570569905495143</v>
+        <v>0.9584084565847095</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>959</v>
@@ -3505,19 +3505,19 @@
         <v>1015510</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>995484</v>
+        <v>994496</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1031867</v>
+        <v>1031655</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9265372432746208</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.908265955180947</v>
+        <v>0.9073642603014506</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9414610908030304</v>
+        <v>0.9412681461065086</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>386663</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>348305</v>
+        <v>350610</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>425001</v>
+        <v>422748</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.114477985345338</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1031214312096703</v>
+        <v>0.1038040637121461</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1258285744288323</v>
+        <v>0.1251616354781601</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>411</v>
@@ -3630,19 +3630,19 @@
         <v>469338</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>425656</v>
+        <v>429942</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>510592</v>
+        <v>515949</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.132877763759173</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1205106467215418</v>
+        <v>0.1217241686253201</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1445576841794489</v>
+        <v>0.1460743050871212</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>790</v>
@@ -3651,19 +3651,19 @@
         <v>856000</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>801776</v>
+        <v>801131</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>917196</v>
+        <v>912089</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1238835592285586</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1160359714076127</v>
+        <v>0.1159426845584132</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1327399390289347</v>
+        <v>0.1320008668960131</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2990955</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2952617</v>
+        <v>2954870</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3029313</v>
+        <v>3027008</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.885522014654662</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8741714255711683</v>
+        <v>0.8748383645218399</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8968785687903299</v>
+        <v>0.8961959362878538</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2915</v>
@@ -3701,19 +3701,19 @@
         <v>3062762</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3021508</v>
+        <v>3016151</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3106444</v>
+        <v>3102158</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.867122236240827</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8554423158205511</v>
+        <v>0.8539256949128788</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8794893532784582</v>
+        <v>0.8782758313746799</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5751</v>
@@ -3722,19 +3722,19 @@
         <v>6053718</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5992522</v>
+        <v>5997629</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6107942</v>
+        <v>6108587</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8761164407714414</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8672600609710652</v>
+        <v>0.8679991331039868</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.883964028592387</v>
+        <v>0.8840573154415867</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>143656</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>127107</v>
+        <v>127006</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>164858</v>
+        <v>162936</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2504268177257319</v>
+        <v>0.2504268177257318</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2215782397744727</v>
+        <v>0.2214014390015308</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2873879029632005</v>
+        <v>0.2840376323592197</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>493</v>
@@ -4086,19 +4086,19 @@
         <v>262215</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>243330</v>
+        <v>241822</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>280845</v>
+        <v>282704</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3204692774761995</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2973892239106171</v>
+        <v>0.295546350092414</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3432382115546904</v>
+        <v>0.3455108011582275</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>697</v>
@@ -4107,19 +4107,19 @@
         <v>405871</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>378240</v>
+        <v>377285</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>434611</v>
+        <v>433509</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2916019447890137</v>
+        <v>0.2916019447890138</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2717503413660019</v>
+        <v>0.2710645791430651</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3122508160686117</v>
+        <v>0.3114592756668536</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>429988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>408786</v>
+        <v>410708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>446537</v>
+        <v>446638</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7495731822742681</v>
+        <v>0.7495731822742682</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7126120970367995</v>
+        <v>0.7159623676407801</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7784217602255272</v>
+        <v>0.7785985609984689</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>928</v>
@@ -4157,19 +4157,19 @@
         <v>556006</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>537376</v>
+        <v>535517</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>574891</v>
+        <v>576399</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6795307225238004</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6567617884453095</v>
+        <v>0.6544891988417727</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7026107760893833</v>
+        <v>0.7044536499075861</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1410</v>
@@ -4178,19 +4178,19 @@
         <v>985994</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>957254</v>
+        <v>958356</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1013625</v>
+        <v>1014580</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7083980552109861</v>
+        <v>0.7083980552109863</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6877491839313883</v>
+        <v>0.6885407243331464</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.728249658633998</v>
+        <v>0.728935420856935</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>278763</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>250484</v>
+        <v>248039</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>315698</v>
+        <v>308053</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1251886373428554</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1124888225063978</v>
+        <v>0.1113909439982158</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.141775402330443</v>
+        <v>0.1383422048963462</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>434</v>
@@ -4303,19 +4303,19 @@
         <v>247951</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>225549</v>
+        <v>225463</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>274669</v>
+        <v>273556</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1143780200607145</v>
+        <v>0.1143780200607146</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1040440473574905</v>
+        <v>0.1040042536707708</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1267027522925518</v>
+        <v>0.1261892807108746</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>762</v>
@@ -4324,19 +4324,19 @@
         <v>526715</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>488793</v>
+        <v>490089</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>563698</v>
+        <v>566872</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1198558044268265</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1112265593531683</v>
+        <v>0.1115215158012917</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1282713697434239</v>
+        <v>0.1289937878094302</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1947984</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1911049</v>
+        <v>1918694</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1976263</v>
+        <v>1978708</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8748113626571447</v>
+        <v>0.8748113626571445</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8582245976695572</v>
+        <v>0.8616577951036538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8875111774936022</v>
+        <v>0.8886090560017842</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2481</v>
@@ -4374,19 +4374,19 @@
         <v>1919872</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1893154</v>
+        <v>1894267</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1942274</v>
+        <v>1942360</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8856219799392853</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8732972477074485</v>
+        <v>0.8738107192891253</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8959559526425096</v>
+        <v>0.8959957463292295</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4141</v>
@@ -4395,19 +4395,19 @@
         <v>3867855</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3830872</v>
+        <v>3827698</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3905777</v>
+        <v>3904481</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8801441955731735</v>
+        <v>0.8801441955731736</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8717286302565759</v>
+        <v>0.8710062121905697</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8887734406468316</v>
+        <v>0.8884784841987082</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>83519</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68053</v>
+        <v>68628</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101620</v>
+        <v>102780</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1173701626927097</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09563569422514211</v>
+        <v>0.09644288517715237</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.142808010580608</v>
+        <v>0.144438293067717</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -4520,19 +4520,19 @@
         <v>88764</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75020</v>
+        <v>74191</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>103571</v>
+        <v>104121</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1210170825309412</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1022787627738664</v>
+        <v>0.1011490410835259</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1412031616473816</v>
+        <v>0.1419539244626251</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>240</v>
@@ -4541,19 +4541,19 @@
         <v>172283</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>149792</v>
+        <v>151659</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>197504</v>
+        <v>198402</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1192212558946125</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1036571436729</v>
+        <v>0.1049489677157563</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1366743360361881</v>
+        <v>0.1372955324081474</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>628068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>609967</v>
+        <v>608807</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>643534</v>
+        <v>642959</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8826298373072902</v>
+        <v>0.8826298373072901</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8571919894193919</v>
+        <v>0.8555617069322831</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9043643057748579</v>
+        <v>0.9035571148228476</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>857</v>
@@ -4591,19 +4591,19 @@
         <v>644722</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>629915</v>
+        <v>629365</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>658466</v>
+        <v>659295</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8789829174690589</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8587968383526183</v>
+        <v>0.8580460755373749</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8977212372261336</v>
+        <v>0.8988509589164739</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1443</v>
@@ -4612,19 +4612,19 @@
         <v>1272790</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1247569</v>
+        <v>1246671</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1295281</v>
+        <v>1293414</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8807787441053876</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8633256639638118</v>
+        <v>0.8627044675918526</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8963428563271</v>
+        <v>0.8950510322842438</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>505938</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>469221</v>
+        <v>465851</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>545947</v>
+        <v>544912</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1440607961408268</v>
+        <v>0.1440607961408267</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1336058939931591</v>
+        <v>0.1326464364190308</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1554529535783282</v>
+        <v>0.1551582145452567</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1072</v>
@@ -4737,19 +4737,19 @@
         <v>598930</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>561959</v>
+        <v>565670</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>630809</v>
+        <v>636565</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.161023125478917</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1510834267426636</v>
+        <v>0.1520811460925447</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1695936510094777</v>
+        <v>0.1711413276871782</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1699</v>
@@ -4758,19 +4758,19 @@
         <v>1104869</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1056771</v>
+        <v>1053146</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1157881</v>
+        <v>1157691</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.152785380251147</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1461342866603307</v>
+        <v>0.1456329688423584</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1601160616348278</v>
+        <v>0.1600898824578812</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3006040</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2966031</v>
+        <v>2967066</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3042757</v>
+        <v>3046127</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8559392038591732</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8445470464216718</v>
+        <v>0.8448417854547433</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.866394106006841</v>
+        <v>0.8673535635809693</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4266</v>
@@ -4808,19 +4808,19 @@
         <v>3120600</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3088721</v>
+        <v>3082965</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3157571</v>
+        <v>3153860</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8389768745210827</v>
+        <v>0.838976874521083</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8304063489905223</v>
+        <v>0.8288586723128218</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8489165732573363</v>
+        <v>0.8479188539074551</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6994</v>
@@ -4829,19 +4829,19 @@
         <v>6126639</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6073627</v>
+        <v>6073817</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6174737</v>
+        <v>6178362</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.847214619748853</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8398839383651726</v>
+        <v>0.839910117542119</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8538657133396692</v>
+        <v>0.8543670311576416</v>
       </c>
     </row>
     <row r="15">
